--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Christy\Work\Numpy Ninja\PlayWright\MananProject\Manan_PlaywrightBDD\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A601546F-97DD-4042-96D6-B0FE864CD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE9633-DE59-48BF-B7AD-C0004D2C1C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{8AEEC34C-C682-457C-8609-A80FE1B52288}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Manan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Age</t>
   </si>
@@ -70,9 +69,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t>Gender is Required</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
@@ -89,6 +85,36 @@
   </si>
   <si>
     <t>GenderNull</t>
+  </si>
+  <si>
+    <t>SymptomsNull</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Chief complaint is required</t>
+  </si>
+  <si>
+    <t>ChiefComplaintNull</t>
+  </si>
+  <si>
+    <t>Symptoms are required</t>
+  </si>
+  <si>
+    <t>Vital signs are required</t>
+  </si>
+  <si>
+    <t>LabValuesNull</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Gender is required</t>
+  </si>
+  <si>
+    <t>AgeString</t>
   </si>
 </sst>
 </file>
@@ -440,24 +466,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333A264E-14A8-4C6E-9D7C-DD79903708FF}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -486,7 +513,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -501,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -511,6 +538,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -535,13 +565,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -559,15 +589,15 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -588,10 +618,98 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>